--- a/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,104 +512,144 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>47.42</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.47</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009481</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009482</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>001902</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>前海开源沪港深隆鑫灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>47.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.47</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009481</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰宏益一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009482</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰宏益一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001616</t>
+          <t>009909</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实环保低碳股票</t>
+          <t>嘉实动力先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>71.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2929</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960003</t>
+          <t>003984</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合H</t>
+          <t>嘉实新能源新材料股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.18</t>
+          <t>38.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003318</t>
+          <t>001616</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
+          <t>嘉实环保低碳股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>44.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0181</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>540004</t>
+          <t>005402</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信2026周期混合</t>
+          <t>广发资源优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>61.53</t>
+          <t>18.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3857</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009740</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009741</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1498</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005535</t>
+          <t>540003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信竞争优选灵活配置混合</t>
+          <t>汇丰晋信动态策略混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>26.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9915</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000126</t>
+          <t>501085</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商安润灵活配置混合</t>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6496</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000131</t>
+          <t>008983</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成景兴信用债债券C</t>
+          <t>财通科技创新混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4370</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005821</t>
+          <t>010235</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
+          <t>广发资源优选股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>70.99</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3840</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009909</t>
+          <t>009062</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实动力先锋混合A</t>
+          <t>财通智慧成长混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3753</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009910</t>
+          <t>003985</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实动力先锋混合C</t>
+          <t>嘉实新能源新材料股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3062</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000423</t>
+          <t>009910</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合A</t>
+          <t>嘉实动力先锋混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001865</t>
+          <t>009740</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合C</t>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>290006</t>
+          <t>003318</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泰信蓝筹精选混合</t>
+          <t>景顺长城中证500行业中性低波动指数</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>501046</t>
+          <t>000126</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
+          <t>招商安润灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>501085</t>
+          <t>501046</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1136,15 +1366,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>92.25</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>4.47</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>512260</t>
+          <t>290006</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华安中证500行业中性低波动ETF</t>
+          <t>泰信蓝筹精选混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>98.03</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>005535</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>泰信竞争优选灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>960003</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>汇丰晋信动态策略混合H</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001474</t>
+          <t>009063</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>兴银丰盈灵活配置混合</t>
+          <t>财通智慧成长混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>008984</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>财通科技创新混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>95.27</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>540003</t>
+          <t>540004</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合A</t>
+          <t>汇丰晋信2026周期混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>88.18</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>61.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>000423</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>前海开源事件驱动混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>79.67</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005402</t>
+          <t>004784</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>广发资源优选股票A</t>
+          <t>招商稳健优选股票</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010235</t>
+          <t>005821</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>广发资源优选股票C</t>
+          <t>万家新机遇龙头企业灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008983</t>
+          <t>009741</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>财通科技创新混合A</t>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.68</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008984</t>
+          <t>008135</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>财通科技创新混合C</t>
+          <t>华宸未来价值先锋混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.68</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009062</t>
+          <t>512260</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>财通智慧成长混合A</t>
+          <t>华安中证500行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009063</t>
+          <t>001351</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>财通智慧成长混合C</t>
+          <t>诺安中证500指数增强A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>007943</t>
+          <t>001865</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>富安达中证 500 指数增强</t>
+          <t>前海开源事件驱动混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>8</v>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008135</t>
+          <t>001474</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华宸未来价值先锋混合</t>
+          <t>兴银丰盈灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>84.08</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>003984</t>
+          <t>007943</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票A</t>
+          <t>富安达中证 500 指数增强</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>003985</t>
+          <t>000131</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票C</t>
+          <t>大成景兴信用债债券C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1630,25 +2040,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>004784</t>
+          <t>010355</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>招商稳健优选股票</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2048,7 +2049,6 @@
           <t>诺安中证500指数增强C</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>92.82</t>
@@ -2063,6 +2063,2820 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8318</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8553</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4410</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4103</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4099</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3839</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3569</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3165</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009768</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>49.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>48.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>48.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009769</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4883,4 +4884,7612 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7447</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0033</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6108</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5091</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4917</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8543</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>57.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7187</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6463</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4496</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4092</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2000</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008314</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1815</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1767</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0894</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0848</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0402</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0269</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9352</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9119</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8980</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8747</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8570</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8219</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009998</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根慧见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>71.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7986</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7757</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001126</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根卓越制造股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7248</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7067</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6783</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6240</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6212</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6163</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6078</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6043</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6023</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>44.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5866</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5746</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5735</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5352</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4637</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4532</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>370027</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根智选30混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4110</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3862</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3353</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2975</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>44.89</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2918</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008315</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>61.50</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>73.58</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>55.58</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005534</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>55.58</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>68.59</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12492,4 +12493,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>199</v>
+      </c>
+      <c r="D2" t="n">
+        <v>68.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12501,7 +12502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12512,17 +12513,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12532,14 +12553,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>199</v>
-      </c>
-      <c r="D2" t="n">
-        <v>68.44</v>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -12548,14 +12591,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.45</v>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -12564,14 +12629,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.23</v>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -12580,13 +12667,1401 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3350</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1747</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8543</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7785</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6753</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3811</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>199</v>
+      </c>
+      <c r="D3" t="n">
+        <v>68.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13960,7 +13961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13971,17 +13972,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13991,14 +14012,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.71</v>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0115</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -14007,14 +14050,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>199</v>
-      </c>
-      <c r="D3" t="n">
-        <v>68.44</v>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -14023,14 +14088,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.45</v>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4451</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -14039,14 +14126,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.23</v>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -14055,13 +14164,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4731</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4701</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>199</v>
+      </c>
+      <c r="D4" t="n">
+        <v>68.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14625,7 +14626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14636,17 +14637,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14656,14 +14677,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.92</v>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9193</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -14672,14 +14715,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.71</v>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -14688,14 +14753,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>199</v>
-      </c>
-      <c r="D4" t="n">
-        <v>68.44</v>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6672</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -14704,14 +14791,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>73</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.45</v>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0876</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -14720,14 +14829,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.23</v>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0794</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -14736,13 +14867,1770 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8625</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7476</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5661</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5645</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5431</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>52.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014260</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>52.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>199</v>
+      </c>
+      <c r="D5" t="n">
+        <v>68.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n">
-        <v>14.22</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>12.92</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>17.71</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>68.44</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="D6" t="n">
-        <v>11.45</v>
+        <v>68.44</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D7" t="n">
-        <v>16.23</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -600,6 +617,3774 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1163</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6453</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1529</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1171</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9373</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8619</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7904</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7055</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6945</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5738</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4587</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4297</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3932</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3238</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3214</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>32.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014260</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013877</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516690</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>96.62</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013876</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>32.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159731</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015897</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012665</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015896</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012666</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015767</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015745</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013846</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015190</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2470,7 +6255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3134,7 +6919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4592,7 +8377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12200,7 +15985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15014,7 +18799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16431,7 +20216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/000301-东方盛虹.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>20.68</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n">
-        <v>14.22</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>12.92</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>17.71</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>68.44</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="D7" t="n">
-        <v>11.45</v>
+        <v>68.44</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D8" t="n">
-        <v>16.23</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,238 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>47.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009481</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009482</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +842,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达品质动能三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0735</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7234</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6314</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014563</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达品质动能三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013877</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011523</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新疆前海联合产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011524</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013876</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4384,7 +5539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6255,7 +7410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6919,7 +8074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8377,7 +9532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15985,7 +17140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18799,7 +19954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20214,212 +21369,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001901</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深隆鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>47.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1235</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009481</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰宏益一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1042</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009482</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰宏益一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001902</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深隆鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>47.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>